--- a/core/data_base/type_soil.xlsx
+++ b/core/data_base/type_soil.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="type_soil" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>code_poch</t>
   </si>
@@ -27,65 +27,68 @@
     <t>name_poch</t>
   </si>
   <si>
-    <t>mas_meh</t>
-  </si>
-  <si>
     <t>Выщелоченный чернозем</t>
   </si>
   <si>
-    <t>{6,8}</t>
-  </si>
-  <si>
     <t>Типичный чернозем</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>Обыкновенный чернозем</t>
   </si>
   <si>
-    <t>{5,6,8}</t>
-  </si>
-  <si>
     <t>Южный чернозем</t>
   </si>
   <si>
     <t>Темно-каштановая</t>
   </si>
   <si>
-    <t>{4,5,6,8,9}</t>
-  </si>
-  <si>
     <t>Каштановая</t>
   </si>
   <si>
-    <t>{3,4,5,6,8}</t>
-  </si>
-  <si>
     <t>Светло-каштановая</t>
   </si>
   <si>
-    <t>{3,5,6,9}</t>
-  </si>
-  <si>
     <t>Бурая полупустынная</t>
   </si>
   <si>
-    <t>{3,4}</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>code_meh</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>5, 6, 8</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 8, 9</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6, 8</t>
+  </si>
+  <si>
+    <t>3, 5, 6, 9</t>
+  </si>
+  <si>
+    <t>3, 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -109,8 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,9 +470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -472,8 +486,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -481,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -492,21 +506,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -525,10 +537,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -536,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -547,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -558,21 +570,18 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
